--- a/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 100,0</t>
+          <t>12,52; 100,0</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 48,2</t>
+          <t>1,86; 44,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 51,47</t>
+          <t>6,93; 52,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,87; 84,33</t>
+          <t>31,97; 85,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 59,05</t>
+          <t>15,66; 56,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,21; 64,91</t>
+          <t>30,39; 66,44</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,66; 94,34</t>
+          <t>57,16; 94,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,66; 59,89</t>
+          <t>11,17; 58,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,17; 80,74</t>
+          <t>47,5; 79,81</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,4; 90,21</t>
+          <t>59,27; 89,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,09; 75,67</t>
+          <t>50,39; 75,08</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,92; 81,45</t>
+          <t>59,78; 82,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,32; 54,42</t>
+          <t>26,94; 51,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,94; 64,41</t>
+          <t>47,6; 63,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,83%</t>
+          <t>72,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>58,89%</t>
         </is>
       </c>
     </row>
@@ -639,14 +639,14 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 100,0</t>
+          <t>11,95; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>22,86%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 100,0</t>
+          <t>3,06; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 44,58</t>
+          <t>2,09; 45,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 52,92</t>
+          <t>7,34; 54,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>48,01%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 85,3</t>
+          <t>31,44; 84,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 56,81</t>
+          <t>15,73; 56,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,39; 66,44</t>
+          <t>30,31; 66,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>64,87%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,16; 94,75</t>
+          <t>56,31; 94,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,17; 58,82</t>
+          <t>11,67; 59,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 79,81</t>
+          <t>46,87; 79,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,01%</t>
+          <t>75,91%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,27; 89,34</t>
+          <t>64,49; 93,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,9; 62,73</t>
+          <t>18,71; 83,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,39; 75,08</t>
+          <t>59,36; 87,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>49,95%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,78; 82,55</t>
+          <t>27,28; 91,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,94; 51,36</t>
+          <t>21,15; 64,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,6; 63,66</t>
+          <t>32,2; 68,78</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>59,12; 82,22</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 50,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 63,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +640,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 100,0</t>
+          <t>12,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 100,0</t>
+          <t>0,97; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 45,39</t>
+          <t>1,94; 48,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 54,43</t>
+          <t>7,84; 52,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 84,97</t>
+          <t>33,13; 86,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 56,31</t>
+          <t>16,63; 56,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 66,18</t>
+          <t>31,59; 67,71</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,31; 94,6</t>
+          <t>56,55; 95,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 59,26</t>
+          <t>11,46; 61,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,87; 79,74</t>
+          <t>45,71; 80,76</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,49; 93,86</t>
+          <t>65,45; 93,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,71; 83,68</t>
+          <t>19,53; 83,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,36; 87,17</t>
+          <t>58,96; 88,44</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,28; 91,57</t>
+          <t>26,03; 91,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,15; 64,98</t>
+          <t>21,55; 64,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,2; 68,78</t>
+          <t>32,14; 68,72</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,12; 82,22</t>
+          <t>58,54; 80,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,73; 50,81</t>
+          <t>28,26; 53,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,38; 63,52</t>
+          <t>47,82; 64,54</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>736; 3220</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>736; 3220</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3627</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4541</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5013</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2698</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>972; 7710</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48; 4987</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>158; 3970</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1028; 6836</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8582</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12891</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4718; 12285</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2097; 7158</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8482; 18183</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14075</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2601</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16676</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9751; 16452</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>970; 5215</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11752; 20760</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12172</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2533</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14705</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9575; 13702</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>926; 3951</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11421; 17132</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3986</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8062</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1605; 5622</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2150; 6455</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5186; 11091</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43963</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19132</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>63094</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36456; 50242</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>14084; 26495</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>53611; 72362</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>